--- a/data/georgia_census/samegrelo/poti/population_total.xlsx
+++ b/data/georgia_census/samegrelo/poti/population_total.xlsx
@@ -1286,13 +1286,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1A3843-CF1A-4E03-8E9C-3CDD26F633F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97510122-A496-43F7-BF6A-73566E9C02F8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA591DFF-D903-4C58-B42C-C10A65B8791E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413ED044-C460-49CA-A293-178184AFA9ED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E154FE1E-F9E3-43C1-B145-87A9C28092E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D690FCA1-49E3-4480-8ACC-BD11C97D25AE}"/>
 </file>